--- a/Resources/Proto/Proto.xlsx
+++ b/Resources/Proto/Proto.xlsx
@@ -1,143 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
-    <sheet name="Gun" sheetId="2" r:id="rId2"/>
+    <sheet name="Skill" sheetId="2" r:id="rId2"/>
+    <sheet name="EffectDamage" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>HP</t>
   </si>
   <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>GrowthArmor</t>
+  </si>
+  <si>
+    <t>FireAP</t>
+  </si>
+  <si>
+    <t>EnergyAP</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>AntiCrit</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>HitAction</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Hadis</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>Bosadon</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>Kerboros</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>Cretos</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>Aflotiter</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>Sk01</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>FxTarget</t>
+  </si>
+  <si>
+    <t>Atk01</t>
+  </si>
+  <si>
+    <t>FxHit01</t>
+  </si>
+  <si>
+    <t>Atk02</t>
+  </si>
+  <si>
+    <t>TargetSelect</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
+    <t>FrontH</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>GrowthArmor</t>
-  </si>
-  <si>
-    <t>FireAP</t>
-  </si>
-  <si>
-    <t>EnergyAP</t>
-  </si>
-  <si>
-    <t>Crit</t>
-  </si>
-  <si>
-    <t>AntiCrit</t>
-  </si>
-  <si>
-    <t>Dim</t>
-  </si>
-  <si>
-    <t>Occupies</t>
-  </si>
-  <si>
-    <t>Guns</t>
-  </si>
-  <si>
-    <t>P010</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P011</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>ShootInterval</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>HitAction</t>
-  </si>
-  <si>
-    <t>HitActionParam0</t>
-  </si>
-  <si>
-    <t>HitActionParam1</t>
-  </si>
-  <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>Once</t>
-  </si>
-  <si>
-    <t>GridOffset</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001;20002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;1;2;3;4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P051</t>
+    <t>Sk02</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -145,30 +143,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Front</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetrate</t>
-  </si>
-  <si>
-    <t>M01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>N01</t>
+    <t>Once</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,11 +738,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,22 +823,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,7 +907,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -955,7 +941,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,14 +1116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
@@ -1146,118 +1131,249 @@
     <col min="12" max="12" width="21.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20001</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2">
+      <c r="G5" s="2">
         <v>50</v>
       </c>
-      <c r="H2">
+      <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="I5" s="2">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
+      <c r="G6" s="2">
         <v>50</v>
       </c>
-      <c r="H3">
+      <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="I6" s="2">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3">
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>20002</v>
       </c>
     </row>
   </sheetData>
@@ -1268,164 +1384,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
         <v>20001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>400</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
+      <c r="E2" s="3">
+        <v>101001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>20002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>101002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>101001</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>20003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>101002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F4">
-        <v>800</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
+      <c r="D3" s="4">
+        <v>600</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Proto/Proto.xlsx
+++ b/Resources/Proto/Proto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>HP</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Kerboros</t>
   </si>
   <si>
-    <t>1_3</t>
-  </si>
-  <si>
     <t>Cretos</t>
   </si>
   <si>
@@ -144,14 +141,46 @@
   </si>
   <si>
     <t>Once</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sk03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giant</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,11 +858,16 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,6 +941,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -941,6 +976,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1116,14 +1152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
@@ -1131,7 +1167,7 @@
     <col min="12" max="12" width="21.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>10001</v>
       </c>
@@ -1201,7 +1237,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10002</v>
       </c>
@@ -1236,7 +1272,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10003</v>
       </c>
@@ -1265,18 +1301,18 @@
         <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
         <v>20001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>2000</v>
@@ -1300,18 +1336,18 @@
         <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2">
         <v>20001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>2000</v>
@@ -1335,18 +1371,18 @@
         <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2">
-        <v>20001</v>
+        <v>20003</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>4000</v>
@@ -1370,11 +1406,47 @@
         <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>20002</v>
       </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="4">
+        <v>20002</v>
+      </c>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1384,14 +1456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
@@ -1401,7 +1473,7 @@
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1418,12 +1490,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>20001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -1435,21 +1507,38 @@
         <v>101001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E3">
         <v>101002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>101003</v>
       </c>
     </row>
   </sheetData>
@@ -1459,19 +1548,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" style="4"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1479,21 +1569,21 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>101001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1502,24 +1592,41 @@
         <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>101002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4">
         <v>600</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>101003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Proto/Proto.xlsx
+++ b/Resources/Proto/Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>HP</t>
   </si>
@@ -112,15 +112,9 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>FxTarget</t>
-  </si>
-  <si>
     <t>Atk01</t>
   </si>
   <si>
-    <t>FxHit01</t>
-  </si>
-  <si>
     <t>Atk02</t>
   </si>
   <si>
@@ -173,6 +167,30 @@
   </si>
   <si>
     <t>1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkMultiArrow01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowMulti01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>101004;101004;101004</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,10 +1319,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2">
-        <v>20001</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1417,7 +1435,7 @@
         <v>10007</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <v>4000</v>
@@ -1441,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4">
         <v>20002</v>
@@ -1457,16 +1475,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
@@ -1486,7 +1505,7 @@
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1503,7 +1522,7 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>101001</v>
       </c>
     </row>
@@ -1512,15 +1531,15 @@
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>101002</v>
       </c>
     </row>
@@ -1529,34 +1548,53 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>101003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
@@ -1569,21 +1607,19 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>101001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1591,42 +1627,49 @@
       <c r="D2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>101002</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="4">
         <v>600</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>101003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>101004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
